--- a/data/trans_dic/P55$familiar-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiar-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,05; 36,21</t>
+          <t>8,23; 34,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,32; 44,19</t>
+          <t>12,18; 46,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,44; 58,21</t>
+          <t>24,11; 57,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,86; 65,73</t>
+          <t>45,06; 66,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,99; 40,45</t>
+          <t>13,93; 39,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,64; 51,35</t>
+          <t>25,01; 50,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,19; 42,72</t>
+          <t>17,67; 41,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,7; 69,08</t>
+          <t>54,41; 68,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,46; 33,43</t>
+          <t>14,35; 33,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,02; 43,44</t>
+          <t>22,87; 42,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,21; 42,68</t>
+          <t>23,03; 42,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,05; 65,39</t>
+          <t>53,1; 65,22</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,94; 28,59</t>
+          <t>7,8; 28,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,38; 42,44</t>
+          <t>14,74; 41,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,18; 47,02</t>
+          <t>21,04; 49,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,62; 67,47</t>
+          <t>43,36; 68,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,97; 45,09</t>
+          <t>22,17; 45,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,5; 42,49</t>
+          <t>21,43; 44,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,3; 39,93</t>
+          <t>16,51; 38,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>55,28; 70,37</t>
+          <t>55,95; 70,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,03; 34,2</t>
+          <t>18,29; 35,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,44; 39,19</t>
+          <t>22,51; 38,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,69; 40,08</t>
+          <t>21,16; 38,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,71; 67,25</t>
+          <t>55,17; 67,13</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,23; 52,18</t>
+          <t>12,01; 52,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 38,11</t>
+          <t>6,78; 39,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,65; 40,73</t>
+          <t>7,64; 42,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,43; 57,91</t>
+          <t>26,61; 60,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,89; 43,44</t>
+          <t>18,09; 46,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,16; 40,46</t>
+          <t>16,42; 41,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,99; 40,44</t>
+          <t>15,14; 41,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>47,24; 66,3</t>
+          <t>48,05; 67,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,63; 43,4</t>
+          <t>18,59; 40,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,54; 34,86</t>
+          <t>15,42; 34,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,56; 37,34</t>
+          <t>15,17; 35,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>43,94; 60,19</t>
+          <t>44,05; 61,38</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 35,99</t>
+          <t>6,94; 37,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,51; 35,47</t>
+          <t>9,88; 35,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 34,1</t>
+          <t>7,98; 34,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,07; 58,78</t>
+          <t>36,32; 60,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 27,51</t>
+          <t>7,92; 25,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,69; 42,44</t>
+          <t>20,11; 41,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,4; 43,82</t>
+          <t>19,07; 42,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,45; 60,64</t>
+          <t>45,55; 59,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,83; 25,34</t>
+          <t>10,61; 26,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,08; 36,7</t>
+          <t>19,99; 36,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,47; 36,14</t>
+          <t>17,91; 37,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>44,39; 57,06</t>
+          <t>45,42; 57,44</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,68; 27,91</t>
+          <t>12,96; 26,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,22; 31,13</t>
+          <t>16,57; 30,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,9; 36,87</t>
+          <t>21,51; 37,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>44,48; 57,16</t>
+          <t>45,24; 57,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,9; 31,89</t>
+          <t>19,56; 31,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,4; 37,71</t>
+          <t>26,68; 37,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,32; 34,57</t>
+          <t>21,88; 34,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>54,71; 62,17</t>
+          <t>55,09; 62,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,27; 28,5</t>
+          <t>19,01; 27,96</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,25; 33,51</t>
+          <t>24,36; 33,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,35; 33,03</t>
+          <t>24,15; 33,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>52,51; 59,11</t>
+          <t>52,86; 59,54</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar no conviviente cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6313</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8275</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11222</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>27565</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11570</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22374</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17148</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>48917</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17883</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>30648</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28370</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>76481</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2788; 11652</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3962; 15195</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6697; 16038</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22361; 33139</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6240; 17910</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15256; 30802</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10627; 25056</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>43353; 54545</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11291; 26381</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>21391; 39796</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>20243; 37102</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>68663; 84322</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7810</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12428</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13559</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21613</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>22251</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>28754</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21067</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>54648</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30061</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>41181</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>34627</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>76262</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3747; 13733</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6729; 19148</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8607; 20062</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>16777; 26551</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>15004; 30596</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18927; 38870</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12687; 29632</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>48116; 60583</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21167; 40722</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>30156; 52089</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24919; 45581</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>68786; 83707</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6071</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5026</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10560</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13723</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13975</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13185</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>33426</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19794</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>19134</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18210</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>43985</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2591; 11403</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1895; 10964</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1778; 9776</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6794; 15552</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8407; 21475</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8527; 21624</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7806; 21285</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28016; 39187</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12648; 27403</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12314; 27840</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11351; 26683</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>36931; 51456</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4185</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8094</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5576</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20356</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11511</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>24133</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>23363</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>55218</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15696</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>32226</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>28939</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>75574</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1604; 8589</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3957; 14237</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2356; 10243</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15700; 26165</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5703; 18296</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15739; 32691</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15030; 33782</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>47497; 62163</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>10086; 24960</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>23651; 43114</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>19396; 40326</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>66991; 84723</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>24378</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>33956</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>35382</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>80093</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>59055</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>89235</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>74763</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>192209</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>83433</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>123190</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>110145</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>272302</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16410; 33428</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24227; 45248</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>26123; 45209</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>71058; 90192</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>45180; 73115</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>74576; 105523</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>58493; 92435</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>180821; 205271</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>67956; 99972</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>103687; 142104</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>93890; 130956</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>256524; 288971</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>